--- a/Team-Data/2012-13/12-25-2012-13.xlsx
+++ b/Team-Data/2012-13/12-25-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -765,7 +832,7 @@
         <v>20</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>6</v>
@@ -813,13 +880,13 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
         <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -848,61 +915,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.519</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="I3" t="n">
         <v>37.2</v>
       </c>
       <c r="J3" t="n">
-        <v>79.40000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L3" t="n">
         <v>5.4</v>
       </c>
       <c r="M3" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.355</v>
+        <v>0.349</v>
       </c>
       <c r="O3" t="n">
-        <v>17.2</v>
+        <v>17.5</v>
       </c>
       <c r="P3" t="n">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R3" t="n">
         <v>7.7</v>
       </c>
       <c r="S3" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T3" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="U3" t="n">
         <v>23.3</v>
       </c>
       <c r="V3" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W3" t="n">
         <v>8.699999999999999</v>
@@ -914,37 +981,37 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.1</v>
+        <v>-0.6</v>
       </c>
       <c r="AD3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF3" t="n">
         <v>15</v>
       </c>
-      <c r="AE3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>14</v>
-      </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK3" t="n">
         <v>5</v>
@@ -956,13 +1023,13 @@
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>4</v>
@@ -971,10 +1038,10 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -992,16 +1059,16 @@
         <v>10</v>
       </c>
       <c r="AZ3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BB3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
         <v>14</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>0.519</v>
+        <v>0.538</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>34.9</v>
+        <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>79.3</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L4" t="n">
         <v>7.8</v>
@@ -1066,70 +1133,70 @@
         <v>16.9</v>
       </c>
       <c r="P4" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.725</v>
+        <v>0.732</v>
       </c>
       <c r="R4" t="n">
         <v>12.3</v>
       </c>
       <c r="S4" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="T4" t="n">
-        <v>41.4</v>
+        <v>41.6</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="V4" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="W4" t="n">
         <v>6.8</v>
       </c>
       <c r="X4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
         <v>4.3</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.59999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>9</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>8</v>
@@ -1138,7 +1205,7 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
         <v>19</v>
@@ -1147,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>9</v>
@@ -1156,13 +1223,13 @@
         <v>27</v>
       </c>
       <c r="AT4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU4" t="n">
         <v>20</v>
       </c>
-      <c r="AU4" t="n">
-        <v>22</v>
-      </c>
       <c r="AV4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW4" t="n">
         <v>26</v>
@@ -1180,10 +1247,10 @@
         <v>5</v>
       </c>
       <c r="BB4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>27</v>
@@ -1305,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ5" t="n">
         <v>7</v>
@@ -1329,7 +1396,7 @@
         <v>5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>12</v>
@@ -1344,7 +1411,7 @@
         <v>28</v>
       </c>
       <c r="AV5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.556</v>
+        <v>0.577</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
@@ -1412,7 +1479,7 @@
         <v>35.1</v>
       </c>
       <c r="J6" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K6" t="n">
         <v>0.441</v>
@@ -1421,40 +1488,40 @@
         <v>4.4</v>
       </c>
       <c r="M6" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.345</v>
+        <v>0.348</v>
       </c>
       <c r="O6" t="n">
         <v>18.2</v>
       </c>
       <c r="P6" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R6" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S6" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="T6" t="n">
-        <v>42.9</v>
+        <v>43.3</v>
       </c>
       <c r="U6" t="n">
         <v>22.4</v>
       </c>
       <c r="V6" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W6" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y6" t="n">
         <v>5.4</v>
@@ -1466,13 +1533,13 @@
         <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1481,19 +1548,19 @@
         <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1502,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="n">
         <v>7</v>
@@ -1520,34 +1587,34 @@
         <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
         <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW6" t="n">
         <v>24</v>
       </c>
       <c r="AX6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
         <v>18</v>
       </c>
       <c r="AZ6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB6" t="n">
         <v>26</v>
       </c>
       <c r="BC6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -1666,10 +1733,10 @@
         <v>28</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1684,16 +1751,16 @@
         <v>9</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
         <v>4</v>
@@ -1723,7 +1790,7 @@
         <v>29</v>
       </c>
       <c r="BA7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1857,7 +1924,7 @@
         <v>16</v>
       </c>
       <c r="AK8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL8" t="n">
         <v>13</v>
@@ -1872,7 +1939,7 @@
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ8" t="n">
         <v>10</v>
@@ -1887,7 +1954,7 @@
         <v>22</v>
       </c>
       <c r="AU8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV8" t="n">
         <v>28</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -1940,103 +2007,103 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="n">
         <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.517</v>
+        <v>0.536</v>
       </c>
       <c r="H9" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I9" t="n">
         <v>39.3</v>
       </c>
       <c r="J9" t="n">
-        <v>84.3</v>
+        <v>84.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.321</v>
+        <v>0.324</v>
       </c>
       <c r="O9" t="n">
         <v>17.4</v>
       </c>
       <c r="P9" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>13.7</v>
+        <v>13.9</v>
       </c>
       <c r="S9" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T9" t="n">
-        <v>45.8</v>
+        <v>45.9</v>
       </c>
       <c r="U9" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V9" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W9" t="n">
         <v>7.8</v>
       </c>
       <c r="X9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y9" t="n">
         <v>6.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA9" t="n">
         <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
         <v>6</v>
@@ -2045,13 +2112,13 @@
         <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN9" t="n">
         <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>6</v>
@@ -2069,13 +2136,13 @@
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2084,7 +2151,7 @@
         <v>26</v>
       </c>
       <c r="AZ9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2093,7 +2160,7 @@
         <v>7</v>
       </c>
       <c r="BC9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -2215,10 +2282,10 @@
         <v>23</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
         <v>22</v>
@@ -2245,10 +2312,10 @@
         <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU10" t="n">
         <v>23</v>
@@ -2266,7 +2333,7 @@
         <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>1.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
@@ -2400,7 +2467,7 @@
         <v>5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK11" t="n">
         <v>7</v>
@@ -2418,7 +2485,7 @@
         <v>16</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ11" t="n">
         <v>6</v>
@@ -2433,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV11" t="n">
         <v>18</v>
@@ -2451,13 +2518,13 @@
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
         <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -2486,61 +2553,61 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
         <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>0.556</v>
+        <v>0.538</v>
       </c>
       <c r="H12" t="n">
         <v>48.6</v>
       </c>
       <c r="I12" t="n">
-        <v>37.9</v>
+        <v>37.6</v>
       </c>
       <c r="J12" t="n">
         <v>83.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.453</v>
+        <v>0.449</v>
       </c>
       <c r="L12" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>26.8</v>
+        <v>27.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O12" t="n">
         <v>20.5</v>
       </c>
       <c r="P12" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R12" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T12" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U12" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V12" t="n">
-        <v>16</v>
+        <v>16.2</v>
       </c>
       <c r="W12" t="n">
         <v>8.6</v>
@@ -2549,31 +2616,31 @@
         <v>4.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA12" t="n">
         <v>19.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>106</v>
+        <v>105.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
         <v>9</v>
@@ -2585,7 +2652,7 @@
         <v>8</v>
       </c>
       <c r="AK12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,10 +2661,10 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
         <v>3</v>
@@ -2606,16 +2673,16 @@
         <v>11</v>
       </c>
       <c r="AR12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT12" t="n">
         <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2633,13 +2700,13 @@
         <v>9</v>
       </c>
       <c r="BA12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>1.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
         <v>8</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
         <v>11</v>
@@ -2779,13 +2846,13 @@
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
         <v>12</v>
       </c>
       <c r="AQ13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR13" t="n">
         <v>8</v>
@@ -2794,13 +2861,13 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU13" t="n">
         <v>25</v>
       </c>
       <c r="AV13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
@@ -2815,13 +2882,13 @@
         <v>15</v>
       </c>
       <c r="BA13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB13" t="n">
         <v>28</v>
       </c>
       <c r="BC13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -2850,106 +2917,106 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" t="n">
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>0.786</v>
+        <v>0.778</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="J14" t="n">
-        <v>80.8</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.479</v>
       </c>
       <c r="L14" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.351</v>
+        <v>0.347</v>
       </c>
       <c r="O14" t="n">
-        <v>17.1</v>
+        <v>17.4</v>
       </c>
       <c r="P14" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.724</v>
+        <v>0.728</v>
       </c>
       <c r="R14" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="S14" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T14" t="n">
-        <v>41.9</v>
+        <v>41.7</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
         <v>14.6</v>
       </c>
       <c r="W14" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="X14" t="n">
         <v>6.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
         <v>20.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.6</v>
+        <v>101.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>15</v>
@@ -2958,22 +3025,22 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT14" t="n">
         <v>17</v>
@@ -2994,10 +3061,10 @@
         <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB14" t="n">
         <v>9</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5</v>
+        <v>0.481</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
@@ -3050,19 +3117,19 @@
         <v>36.5</v>
       </c>
       <c r="J15" t="n">
-        <v>80.5</v>
+        <v>80.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="O15" t="n">
         <v>20.5</v>
@@ -3074,61 +3141,61 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="S15" t="n">
         <v>32.9</v>
       </c>
       <c r="T15" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="W15" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE15" t="n">
         <v>16</v>
       </c>
-      <c r="W15" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="X15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>102.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>14</v>
-      </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI15" t="n">
         <v>18</v>
       </c>
       <c r="AJ15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="n">
         <v>8</v>
@@ -3143,7 +3210,7 @@
         <v>7</v>
       </c>
       <c r="AO15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3161,22 +3228,22 @@
         <v>1</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>29</v>
       </c>
       <c r="AW15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>12</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>10</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -3295,13 +3362,13 @@
         <v>26</v>
       </c>
       <c r="AE16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="n">
         <v>4</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH16" t="n">
         <v>14</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO16" t="n">
         <v>10</v>
@@ -3340,7 +3407,7 @@
         <v>19</v>
       </c>
       <c r="AT16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU16" t="n">
         <v>19</v>
@@ -3352,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY16" t="n">
         <v>20</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="n">
         <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="H17" t="n">
         <v>48.2</v>
@@ -3414,58 +3481,58 @@
         <v>38.8</v>
       </c>
       <c r="J17" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="K17" t="n">
-        <v>0.497</v>
+        <v>0.498</v>
       </c>
       <c r="L17" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.405</v>
+        <v>0.411</v>
       </c>
       <c r="O17" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P17" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.769</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
         <v>7.8</v>
       </c>
       <c r="S17" t="n">
-        <v>30.7</v>
+        <v>31</v>
       </c>
       <c r="T17" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="U17" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V17" t="n">
         <v>14.2</v>
       </c>
       <c r="W17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X17" t="n">
         <v>4.8</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="AB17" t="n">
         <v>103.5</v>
@@ -3474,13 +3541,13 @@
         <v>6.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
       </c>
       <c r="AF17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG17" t="n">
         <v>3</v>
@@ -3507,31 +3574,31 @@
         <v>1</v>
       </c>
       <c r="AO17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP17" t="n">
         <v>14</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AQ17" t="n">
         <v>15</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV17" t="n">
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
         <v>21</v>
@@ -3540,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -3656,16 +3723,16 @@
         <v>-1.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
         <v>16</v>
@@ -3692,7 +3759,7 @@
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
         <v>20</v>
@@ -3704,7 +3771,7 @@
         <v>15</v>
       </c>
       <c r="AT18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
         <v>16</v>
@@ -3713,7 +3780,7 @@
         <v>8</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3728,7 +3795,7 @@
         <v>14</v>
       </c>
       <c r="BB18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC18" t="n">
         <v>18</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -3841,16 +3908,16 @@
         <v>26</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
         <v>21</v>
@@ -3877,7 +3944,7 @@
         <v>4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
@@ -3889,16 +3956,16 @@
         <v>5</v>
       </c>
       <c r="AU19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW19" t="n">
         <v>12</v>
       </c>
       <c r="AX19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY19" t="n">
         <v>22</v>
@@ -3913,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>29</v>
@@ -4032,7 +4099,7 @@
         <v>29</v>
       </c>
       <c r="AH20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4071,7 +4138,7 @@
         <v>25</v>
       </c>
       <c r="AU20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV20" t="n">
         <v>11</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>0.714</v>
+        <v>0.741</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
@@ -4142,28 +4209,28 @@
         <v>37.3</v>
       </c>
       <c r="J21" t="n">
-        <v>83.40000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="K21" t="n">
         <v>0.448</v>
       </c>
       <c r="L21" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="M21" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.393</v>
+        <v>0.395</v>
       </c>
       <c r="O21" t="n">
-        <v>16.2</v>
+        <v>16.5</v>
       </c>
       <c r="P21" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.755</v>
+        <v>0.761</v>
       </c>
       <c r="R21" t="n">
         <v>10.1</v>
@@ -4190,37 +4257,37 @@
         <v>3.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.3</v>
+        <v>102.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
       </c>
       <c r="AF21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI21" t="n">
         <v>8</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK21" t="n">
         <v>13</v>
@@ -4235,13 +4302,13 @@
         <v>3</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP21" t="n">
         <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
         <v>25</v>
@@ -4268,10 +4335,10 @@
         <v>3</v>
       </c>
       <c r="AZ21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BB21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -4306,43 +4373,43 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" t="n">
         <v>21</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.778</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37</v>
+        <v>37.3</v>
       </c>
       <c r="J22" t="n">
-        <v>77.2</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.479</v>
+        <v>0.481</v>
       </c>
       <c r="L22" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M22" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.399</v>
+        <v>0.402</v>
       </c>
       <c r="O22" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="P22" t="n">
-        <v>27.7</v>
+        <v>27.3</v>
       </c>
       <c r="Q22" t="n">
         <v>0.845</v>
@@ -4351,61 +4418,61 @@
         <v>10.1</v>
       </c>
       <c r="S22" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T22" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U22" t="n">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="V22" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
         <v>7.7</v>
       </c>
       <c r="X22" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.8</v>
+        <v>105.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
       </c>
       <c r="AK22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AL22" t="n">
         <v>12</v>
@@ -4429,16 +4496,16 @@
         <v>26</v>
       </c>
       <c r="AS22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AV22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW22" t="n">
         <v>20</v>
@@ -4450,13 +4517,13 @@
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
         <v>4</v>
       </c>
       <c r="BB22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
@@ -4578,16 +4645,16 @@
         <v>21</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ23" t="n">
         <v>18</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
         <v>26</v>
@@ -4617,7 +4684,7 @@
         <v>7</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV23" t="n">
         <v>24</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-2.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
@@ -4775,7 +4842,7 @@
         <v>16</v>
       </c>
       <c r="AM24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
         <v>13</v>
@@ -4787,7 +4854,7 @@
         <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR24" t="n">
         <v>15</v>
@@ -4796,7 +4863,7 @@
         <v>20</v>
       </c>
       <c r="AT24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>17</v>
@@ -4814,7 +4881,7 @@
         <v>12</v>
       </c>
       <c r="AZ24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA24" t="n">
         <v>29</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
@@ -4981,7 +5048,7 @@
         <v>27</v>
       </c>
       <c r="AU25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -5112,16 +5179,16 @@
         <v>-2.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>3</v>
@@ -5151,7 +5218,7 @@
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR26" t="n">
         <v>13</v>
@@ -5169,22 +5236,22 @@
         <v>15</v>
       </c>
       <c r="AW26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA26" t="n">
         <v>23</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC26" t="n">
         <v>21</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
@@ -5324,7 +5391,7 @@
         <v>20</v>
       </c>
       <c r="AN27" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AO27" t="n">
         <v>17</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -5479,13 +5546,13 @@
         <v>2</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG28" t="n">
         <v>5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>4</v>
       </c>
       <c r="AH28" t="n">
         <v>8</v>
@@ -5497,7 +5564,7 @@
         <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
@@ -5509,7 +5576,7 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP28" t="n">
         <v>24</v>
@@ -5548,7 +5615,7 @@
         <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC28" t="n">
         <v>3</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE29" t="n">
         <v>24</v>
@@ -5718,7 +5785,7 @@
         <v>23</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>17</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -5846,7 +5913,7 @@
         <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
         <v>16</v>
@@ -5870,7 +5937,7 @@
         <v>24</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5879,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR30" t="n">
         <v>3</v>
@@ -5888,7 +5955,7 @@
         <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU30" t="n">
         <v>11</v>
@@ -5915,7 +5982,7 @@
         <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6107,7 @@
         <v>30</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
         <v>30</v>
@@ -6070,7 +6137,7 @@
         <v>11</v>
       </c>
       <c r="AT31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU31" t="n">
         <v>24</v>
@@ -6079,7 +6146,7 @@
         <v>17</v>
       </c>
       <c r="AW31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX31" t="n">
         <v>23</v>
@@ -6088,7 +6155,7 @@
         <v>15</v>
       </c>
       <c r="AZ31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-25-2012-13</t>
+          <t>2012-12-25</t>
         </is>
       </c>
     </row>
